--- a/SubwayData/Excel/경강선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/경강선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC569BD-C27A-8848-9017-424BA2265117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411A2F8-7845-4B4B-B026-DBAA170A7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{51E7995A-BD9B-FE45-888B-B5D281EBF460}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>판교(판교테크노밸리)</t>
-  </si>
-  <si>
     <t>이매</t>
   </si>
   <si>
@@ -89,6 +86,10 @@
   </si>
   <si>
     <t>여주</t>
+  </si>
+  <si>
+    <t>판교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,7 +505,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -531,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -545,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>1.5</v>
@@ -559,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>6.9</v>
@@ -573,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>4.9000000000000004</v>
@@ -587,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -601,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>4.9000000000000004</v>
@@ -615,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>6.8</v>
@@ -629,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>7.8</v>
@@ -643,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>4.5</v>
@@ -657,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>8.3000000000000007</v>
@@ -671,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>5.4</v>
